--- a/2022_HelloWorld_in_English/1102_pre.xlsx
+++ b/2022_HelloWorld_in_English/1102_pre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_vs\helloworldinenglish\data\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477668DD-21ED-4553-BAE0-6ACB715624B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E35AE23-469C-4920-BB09-A710436D11F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -304,13 +304,15 @@
     <t>translation</t>
   </si>
   <si>
-    <t>Before the program, how many days do you usually spend at least 5 minutes a day utilizing English videos or articles for entertainment or knowledge?</t>
+    <t>this question is for the use of other research</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>In the future, how many days in a week do you expect yourself to spend at least 5 minutes a day utilizing English videos or articles for entertainment or knowledge?</t>
+    <t>Before the program, how many days in a week do you usually spend at least 5 minutes on utilizing English for entertainment or knowledge?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>this question is for the use of other research</t>
+    <t>In the future, how many days in a week do you wish that you will spend at least 5 minutes on utilizing English for entertainment or knowledge?</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -723,7 +725,7 @@
   </sheetPr>
   <dimension ref="A1:AT261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -36839,8 +36841,8 @@
   </sheetPr>
   <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -36869,7 +36871,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -36880,7 +36882,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -36891,7 +36893,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -36902,7 +36904,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -36913,7 +36915,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -36924,7 +36926,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -36935,7 +36937,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -36946,7 +36948,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -36957,7 +36959,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -36968,7 +36970,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -36979,7 +36981,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -36990,7 +36992,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37001,7 +37003,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37012,7 +37014,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37023,7 +37025,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37034,7 +37036,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37045,7 +37047,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37056,7 +37058,7 @@
         <v>35</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37067,7 +37069,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37078,7 +37080,7 @@
         <v>39</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37089,7 +37091,7 @@
         <v>41</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37100,7 +37102,7 @@
         <v>43</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37111,7 +37113,7 @@
         <v>45</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37122,7 +37124,7 @@
         <v>47</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37133,7 +37135,7 @@
         <v>49</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37144,7 +37146,7 @@
         <v>51</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37155,7 +37157,7 @@
         <v>53</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37166,7 +37168,7 @@
         <v>55</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37177,7 +37179,7 @@
         <v>57</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37188,7 +37190,7 @@
         <v>59</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37199,7 +37201,7 @@
         <v>61</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37210,7 +37212,7 @@
         <v>63</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37221,7 +37223,7 @@
         <v>65</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37232,7 +37234,7 @@
         <v>67</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37243,7 +37245,7 @@
         <v>69</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37254,7 +37256,7 @@
         <v>71</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37265,7 +37267,7 @@
         <v>73</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37276,7 +37278,7 @@
         <v>75</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37287,7 +37289,7 @@
         <v>77</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37298,7 +37300,7 @@
         <v>79</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37309,7 +37311,7 @@
         <v>81</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37320,7 +37322,7 @@
         <v>83</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
